--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\Graduation_Design\IMvGCN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D994E578-7AB9-4797-93D4-44D17C03B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E000156F-860B-4541-85A9-8F256264A7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="1065" windowWidth="17490" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>3Sources</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,13 +45,23 @@
   <si>
     <t>GRAZ02</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNIST</t>
+  </si>
+  <si>
+    <t>Out_Scene</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +74,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -87,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,15 +387,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.01</v>
       </c>
@@ -390,8 +411,17 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -404,8 +434,17 @@
       <c r="D2">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>89.94</v>
+      </c>
+      <c r="F2">
+        <v>88.13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -417,6 +456,86 @@
       </c>
       <c r="D3">
         <v>49.85</v>
+      </c>
+      <c r="E3">
+        <v>89.9</v>
+      </c>
+      <c r="F3">
+        <v>83.97</v>
+      </c>
+      <c r="G3" s="1">
+        <v>60.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>92.33</v>
+      </c>
+      <c r="C10">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="D10">
+        <v>57.67</v>
+      </c>
+      <c r="E10">
+        <v>97.14</v>
+      </c>
+      <c r="F10">
+        <v>89.51</v>
+      </c>
+      <c r="G10" s="1">
+        <v>72.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>90.55</v>
+      </c>
+      <c r="C11">
+        <v>65.78</v>
+      </c>
+      <c r="D11">
+        <v>56.66</v>
+      </c>
+      <c r="E11">
+        <v>97.14</v>
+      </c>
+      <c r="F11">
+        <v>87.21</v>
+      </c>
+      <c r="G11" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="1">
+        <v>74.5</v>
       </c>
     </row>
   </sheetData>
